--- a/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-8,24</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 1,38</t>
+          <t>-13,98; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; -1,61</t>
+          <t>-16,37; -1,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -2,08</t>
+          <t>-13,95; -2,95</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>-43,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,46%</t>
+          <t>-43,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,76%</t>
+          <t>-43,27%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 17,95</t>
+          <t>-70,23; 5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -6,51</t>
+          <t>-64,0; -2,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,46; -13,53</t>
+          <t>-62,92; -17,52</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 12,68</t>
+          <t>-7,59; 15,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 9,83</t>
+          <t>-4,68; 9,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 8,15</t>
+          <t>-3,51; 9,43</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 143,77</t>
+          <t>-50,16; 176,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 98,5</t>
+          <t>-31,41; 94,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 75,91</t>
+          <t>-26,54; 90,06</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 17,02</t>
+          <t>-1,5; 8,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,15</t>
+          <t>-9,17; 2,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,62</t>
+          <t>-3,92; 4,5</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 253,01</t>
+          <t>-16,74; 159,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 14,92</t>
+          <t>-44,4; 16,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 60,23</t>
+          <t>-27,3; 43,55</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,82</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,62</t>
+          <t>-2,07; 8,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,81</t>
+          <t>-2,35; 7,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,27</t>
+          <t>-0,47; 6,58</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>29,26%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 117,12</t>
+          <t>-18,72; 124,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 92,18</t>
+          <t>-22,07; 86,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 75,28</t>
+          <t>-4,83; 78,31</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,73</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,51</t>
+          <t>0,13; 8,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 9,27</t>
+          <t>-2,29; 8,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 7,11</t>
+          <t>0,24; 6,87</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>106,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>81,33%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 404,35</t>
+          <t>-9,35; 371,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 262,67</t>
+          <t>-33,3; 276,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 199,16</t>
+          <t>-3,67; 204,74</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,27</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 10,33</t>
+          <t>-3,9; 10,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,78</t>
+          <t>-1,77; 8,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,69</t>
+          <t>-0,92; 7,74</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>59,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>60,21%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>59,76%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 189,36</t>
+          <t>-41,5; 234,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 298,74</t>
+          <t>-38,55; 287,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 150,33</t>
+          <t>-23,46; 192,17</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,56</t>
+          <t>-0,59; 4,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,3</t>
+          <t>-2,18; 2,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,86</t>
+          <t>-0,76; 3,09</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 60,91</t>
+          <t>-6,08; 58,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 20,21</t>
+          <t>-17,92; 23,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 27,46</t>
+          <t>-6,96; 32,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,24</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.726032782268706</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.55075541117679</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.013301824019317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; 0,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,37; -1,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,95; -2,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.65362308700887</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.92591473983258</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.72631198835017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-43,58%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-43,24%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-43,27%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.840198008083918</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.421575084822614</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.829732853844803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-70,23; 5,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-64,0; -2,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-62,92; -17,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.3341273651039718</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.4751021973938064</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.4099714678927212</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6600880208346404</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6825654186498266</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6134305227280014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,59; 15,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 9,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 9,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2267085480208122</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.1040028336490923</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.08977448311726076</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>22,66%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>19,76%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.145841260609279</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.736710481786044</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.419413505604006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-50,16; 176,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,41; 94,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,54; 90,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.959563425013341</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.40182718893359</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.237205487630849</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.28160952632006</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.194273838363088</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.349525721998173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 8,82</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 2,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 4,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.08833127233577949</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.1318755481264511</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.108607357911151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>44,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-18,31%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4944587319169477</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.315733358754467</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.322674141222983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; 159,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-44,4; 16,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,3; 43,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.517466536711983</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.9827828227202214</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8293458115425869</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.4486914862602</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.416409930353745</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1225815495475874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 8,65</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 7,29</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 6,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.001447026210747</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.949457611958263</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.767812319864001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>35,58%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>24,06%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>29,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.398947562600442</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.122009590620406</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.128093260228979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; 124,66</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-22,07; 86,68</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,83; 78,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4132293635928214</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.190592347610733</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.009214207340823221</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2151286235011042</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4391050129078394</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3006903264830472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 8,24</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 8,43</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 6,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.472816479752491</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2178862215140546</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3841624388503038</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>106,07%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>64,71%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>81,33%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.847231511083682</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.975531493018285</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.903108291352549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 371,84</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-33,3; 276,6</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 204,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.483836082248927</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.376635759975219</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.685663144169683</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.230229451758973</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.444619748246819</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.535253665977465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 10,5</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 8,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 7,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.2877602995469255</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.2802896780132577</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.2824826636580011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>59,15%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>60,41%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>59,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.216015232797131</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1852675652368944</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0666802887087049</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-41,5; 234,12</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-38,55; 287,9</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; 192,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.188355247389593</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.032063502767595</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.732890771208916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>3.726502253626601</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>3.621852922155028</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>3.724949281920054</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 4,81</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 2,41</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 3,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-0.3562884719751651</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-3.244071547699504</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-0.2730800255805141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>20,64%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>8.28540813714967</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>8.8124814501664</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.493398450188544</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 58,76</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 23,81</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 32,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.9663854612302082</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.5645858390171016</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7312221403591092</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1571072051882412</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3822028350085953</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.09410795549348783</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3.555354922566318</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>2.074157170599143</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>2.119533612998134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>3.386362846210757</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>2.19381595232807</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.673450822085065</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-5.445665147785425</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-2.531372194855233</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-2.194973821780508</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10.26287405570396</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>8.595532681753175</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>7.128530568376219</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.3978320035626332</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.4315231767206693</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.4039033679595641</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4665984151387679</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.409807154620468</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2858258809454913</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>1.979127849800946</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>2.601604116677364</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.519531687082361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.60578373442654</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.50460235489755</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.5280834050698777</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-1.013475946706042</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.037711279511526</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-1.44060991361989</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.941781376972854</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.009301474358884</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.470808713354823</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.1585371865277458</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.04024568475835206</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.04648902312797201</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.09009338591947164</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.219274533784778</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1138886228811865</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.5594830926246075</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1800934064551072</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.2394342247891523</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
